--- a/results/mp/logistic/corona/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,171 +40,174 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>great</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>great</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -220,10 +223,13 @@
     <t>safety</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>helping</t>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7534246575342466</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,38 +809,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="L6">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6">
-        <v>0.8983050847457628</v>
-      </c>
-      <c r="L6">
-        <v>53</v>
-      </c>
-      <c r="M6">
-        <v>53</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -845,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5882352941176471</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,31 +927,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>0.875</v>
+      </c>
+      <c r="L8">
+        <v>98</v>
+      </c>
+      <c r="M8">
+        <v>98</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="L8">
-        <v>13</v>
-      </c>
-      <c r="M8">
-        <v>13</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5789473684210527</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5277777777777778</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8433420365535248</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>323</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>323</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,7 +1059,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -1071,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.839622641509434</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4324324324324325</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3968253968253968</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3507751937984496</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C14">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D14">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.79375</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.288135593220339</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -1321,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1353,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.24</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1395,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1403,78 +1409,54 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2363636363636364</v>
+        <v>0.006083294337856809</v>
       </c>
       <c r="C18">
         <v>13</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>2124</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.7816901408450704</v>
+      </c>
+      <c r="L18">
+        <v>111</v>
+      </c>
+      <c r="M18">
+        <v>111</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L18">
-        <v>45</v>
-      </c>
-      <c r="M18">
-        <v>45</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2013422818791946</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>30</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>119</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K19">
         <v>0.7727272727272727</v>
@@ -1500,16 +1482,16 @@
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.7605633802816901</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L20">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,12 +1503,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>0.75</v>
@@ -1552,16 +1534,16 @@
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1573,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1599,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.723404255319149</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1625,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1651,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.6976744186046512</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1677,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.6857142857142857</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1703,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.6825396825396826</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1729,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1755,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.65</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1781,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.6441176470588236</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L31">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1807,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.64</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1833,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.6071428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1859,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.6063829787234043</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1885,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.5846153846153846</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1911,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.5690376569037657</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1937,12 +1919,12 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K37">
         <v>0.5652173913043478</v>
@@ -1968,16 +1950,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.5491525423728814</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L38">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M38">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1989,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.5416666666666666</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2015,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.4857142857142857</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2041,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.4848484848484849</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2067,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.4382022471910113</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2093,47 +2075,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.4285714285714285</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>18</v>
-      </c>
-      <c r="M43">
-        <v>18</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>24</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.3529411764705883</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2145,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.2876712328767123</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2171,21 +2153,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46">
-        <v>0.2564102564102564</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2197,32 +2179,110 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K47">
+      <c r="K48">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49">
+        <v>0.2328767123287671</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
+        <v>17</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50">
         <v>0.2203389830508475</v>
       </c>
-      <c r="L47">
+      <c r="L50">
         <v>13</v>
       </c>
-      <c r="M47">
+      <c r="M50">
         <v>13</v>
       </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>46</v>
       </c>
     </row>
